--- a/Planung/Kosten/Kostenübersicht.xlsx
+++ b/Planung/Kosten/Kostenübersicht.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>AEMS - Advanced Energy Monitoring System</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>Gesamtpreis:</t>
+  </si>
+  <si>
+    <t>Sebastian Mandl</t>
+  </si>
+  <si>
+    <t>Schreib-Lesekopf (Zähler)</t>
   </si>
 </sst>
 </file>
@@ -64,7 +70,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,15 +79,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="15"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -96,14 +109,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -130,27 +143,28 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -436,131 +450,142 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="23.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="6"/>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>50</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D11" s="5"/>
+      <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D12" s="5"/>
+      <c r="D12" s="9"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D13" s="5"/>
+      <c r="D13" s="9"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D14" s="5"/>
+      <c r="D14" s="9"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D15" s="5"/>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D16" s="5"/>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D17" s="5"/>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D18" s="5"/>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D19" s="5"/>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D20" s="5"/>
+      <c r="D20" s="9"/>
     </row>
     <row r="21" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D21" s="5"/>
+      <c r="D21" s="9"/>
     </row>
     <row r="22" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D22" s="5"/>
+      <c r="D22" s="9"/>
     </row>
     <row r="23" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D23" s="5"/>
+      <c r="D23" s="9"/>
     </row>
     <row r="24" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D24" s="5"/>
+      <c r="D24" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Planung/Kosten/Kostenübersicht.xlsx
+++ b/Planung/Kosten/Kostenübersicht.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{F5D22FCC-566D-41AD-AC85-0BEF9FF8DC8A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>AEMS - Advanced Energy Monitoring System</t>
   </si>
@@ -61,12 +62,27 @@
   </si>
   <si>
     <t>Schreib-Lesekopf (Zähler)</t>
+  </si>
+  <si>
+    <t>Knoll, Mandl, Graf</t>
+  </si>
+  <si>
+    <t>Diplomarbeitsdokumentation</t>
+  </si>
+  <si>
+    <t>Flyer + Plakate</t>
+  </si>
+  <si>
+    <t>insg. 35</t>
+  </si>
+  <si>
+    <t>Gesamt:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -145,16 +161,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -166,6 +176,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -446,146 +470,174 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="23.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="23.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="5">
         <v>1</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="6">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="9"/>
+      <c r="B7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="7">
+        <v>5</v>
+      </c>
+      <c r="E7" s="6">
+        <v>210</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="9"/>
+      <c r="B8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="6">
+        <v>25</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="9"/>
+      <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="9"/>
+      <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D11" s="9"/>
+      <c r="D11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="13">
+        <f>SUM(E6:E10)</f>
+        <v>285</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D12" s="9"/>
+      <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D13" s="9"/>
+      <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D14" s="9"/>
+      <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D15" s="9"/>
+      <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D16" s="9"/>
+      <c r="D16" s="7"/>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D17" s="9"/>
+      <c r="D17" s="7"/>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D18" s="9"/>
+      <c r="D18" s="7"/>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D19" s="9"/>
+      <c r="D19" s="7"/>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D20" s="9"/>
+      <c r="D20" s="7"/>
     </row>
     <row r="21" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D21" s="9"/>
+      <c r="D21" s="7"/>
     </row>
     <row r="22" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D22" s="9"/>
+      <c r="D22" s="7"/>
     </row>
     <row r="23" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D23" s="9"/>
+      <c r="D23" s="7"/>
     </row>
     <row r="24" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D24" s="9"/>
+      <c r="D24" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
